--- a/annales/2013/2013-sujet.xlsx
+++ b/annales/2013/2013-sujet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26310"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB64C809-2167-4A16-BE8A-6EE422E81FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B09E125-7C30-43D1-B159-22C3D98284F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="1395" windowWidth="21600" windowHeight="13665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22356" yWindow="-852" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUJET" sheetId="4" r:id="rId1"/>
@@ -1474,18 +1474,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1531,118 +1519,130 @@
     <xf numFmtId="8" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2310,46 +2310,46 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="91" customWidth="1"/>
+    <col min="1" max="1" width="27.21875" style="73" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="68" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
+      <c r="A2" s="69"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="70" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="88"/>
+      <c r="A4" s="71"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="56" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="89" t="s">
         <v>182</v>
       </c>
       <c r="D6" t="str">
@@ -2358,30 +2358,30 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="96"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="90"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="73"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="97"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="91"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="89" t="s">
         <v>183</v>
       </c>
       <c r="D10" t="str">
@@ -2390,84 +2390,84 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="96"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="90"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="73"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="97"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="91"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="58"/>
     </row>
     <row r="14" spans="1:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:4" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
+      <c r="A17" s="69"/>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="70" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+      <c r="A19" s="71"/>
     </row>
     <row r="20" spans="1:3" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="C20" s="81"/>
+      <c r="C20" s="67"/>
     </row>
     <row r="21" spans="1:3" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2488,135 +2488,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="52"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="48"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="52">
         <v>2</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="53" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="52">
         <v>4</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="74">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="52">
         <v>5</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="54">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="52">
         <v>6</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="52">
         <v>7</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="54">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="52">
         <v>8</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="55">
         <v>2850</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="56">
+      <c r="B9" s="52">
         <v>9</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="54">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="52">
         <v>10</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="54">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="52">
         <v>11</v>
       </c>
-      <c r="C11" s="58">
+      <c r="C11" s="54">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="56">
+      <c r="B12" s="52">
         <v>12</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="54">
         <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2662,22 +2662,22 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="41"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="96"/>
     </row>
     <row r="2" spans="1:14" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2748,13 +2748,13 @@
       <c r="H3" s="4">
         <v>1850</v>
       </c>
-      <c r="I3" s="93">
+      <c r="I3" s="75">
         <v>173</v>
       </c>
-      <c r="J3" s="93">
+      <c r="J3" s="75">
         <v>35</v>
       </c>
-      <c r="K3" s="93">
+      <c r="K3" s="75">
         <v>30</v>
       </c>
       <c r="L3" s="6">
@@ -2763,7 +2763,7 @@
       <c r="M3" s="5">
         <v>238</v>
       </c>
-      <c r="N3" s="94"/>
+      <c r="N3" s="76"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -3467,166 +3467,166 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="39"/>
       <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48">
+      <c r="A4" s="44">
         <v>0</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="43">
         <v>40</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48">
+      <c r="A5" s="44">
         <v>1500</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="43">
         <v>30</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48">
+      <c r="A6" s="44">
         <v>2500</v>
       </c>
-      <c r="B6" s="47">
+      <c r="B6" s="43">
         <v>20</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48">
+      <c r="A7" s="44">
         <v>3500</v>
       </c>
-      <c r="B7" s="47">
+      <c r="B7" s="43">
         <v>10</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48">
+      <c r="A8" s="44">
         <v>4500</v>
       </c>
-      <c r="B8" s="47">
+      <c r="B8" s="43">
         <v>0</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="43">
         <v>4</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="43">
         <v>1</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46"/>
-      <c r="B15" s="49" t="s">
+      <c r="A15" s="42"/>
+      <c r="B15" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="43">
         <v>5</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="47">
         <v>0.25</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="47">
+      <c r="B17" s="43">
         <v>3</v>
       </c>
-      <c r="C17" s="51">
+      <c r="C17" s="47">
         <v>0.2</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3665,12 +3665,12 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
     </row>
     <row r="4" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30" t="s">
@@ -3799,12 +3799,12 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30" t="s">

--- a/annales/2013/2013-sujet.xlsx
+++ b/annales/2013/2013-sujet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26403"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B09E125-7C30-43D1-B159-22C3D98284F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16077DF0-7046-4B2B-B6DC-A3B2D825E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22356" yWindow="-852" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-3024" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUJET" sheetId="4" r:id="rId1"/>
@@ -1582,6 +1582,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1608,24 +1626,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2167,9 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2343,13 +2341,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="80" t="s">
         <v>182</v>
       </c>
       <c r="D6" t="str">
@@ -2358,14 +2356,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="90"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="81"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="79"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="82"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
@@ -2375,13 +2373,13 @@
       <c r="C9" s="58"/>
     </row>
     <row r="10" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="80" t="s">
         <v>183</v>
       </c>
       <c r="D10" t="str">
@@ -2390,14 +2388,14 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="90"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="81"/>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="79"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="82"/>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
@@ -2425,11 +2423,11 @@
       <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:4" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="69"/>
@@ -2452,11 +2450,11 @@
       <c r="C20" s="67"/>
     </row>
     <row r="21" spans="1:3" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2478,7 +2476,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2656,7 +2654,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3460,9 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CE236D-6BF0-4B44-824B-3D05E877A929}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3638,9 +3634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
